--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="973" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -271,18 +271,18 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="54.1326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="53.4591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -428,84 +428,20 @@
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="20">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2" type="list">
+  <dataValidations count="4">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D6" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D3" type="list">
-      <formula1>"Mínimo,Importante,Opcional"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E1:E6" type="none">
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D4" type="list">
-      <formula1>"Mínimo,Importante,Opcional"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D5" type="list">
-      <formula1>"Mínimo,Importante,Opcional"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D6" type="list">
-      <formula1>"Mínimo,Importante,Opcional"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2" type="list">
-      <formula1>"Técnico,Funcional,Información"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E3" type="list">
-      <formula1>"Técnico,Funcional,Información"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4" type="list">
-      <formula1>"Técnico,Funcional,Información"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E5" type="list">
-      <formula1>"Técnico,Funcional,Información"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E6" type="list">
-      <formula1>"Técnico,Funcional,Información"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F6" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F3" type="list">
-      <formula1>"Fácil,Media,Difícil"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4" type="list">
-      <formula1>"Fácil,Media,Difícil"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F5" type="list">
-      <formula1>"Fácil,Media,Difícil"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F6" type="list">
-      <formula1>"Fácil,Media,Difícil"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2" type="list">
-      <formula1>"v1,v2,v3"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G3" type="list">
-      <formula1>"v1,v2,v3"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G4" type="list">
-      <formula1>"v1,v2,v3"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G5" type="list">
-      <formula1>"v1,v2,v3"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G6" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="182">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -49,10 +49,379 @@
     <t xml:space="preserve">R01</t>
   </si>
   <si>
-    <t xml:space="preserve">sdfsdfsdfsdfs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skdjfksjf skjf hskjfh kjsdh fkjs hkjh fdjksh fkjsdh fkjs dfkjs dfkj sjkd fsjk fkjs fkjs fkjs fjks fjks hfkjs fjks hfjks hfjks hfjks hfjk sfjks fjks hfjks hjkf hsjkfs jk</t>
+    <t xml:space="preserve">Alta del usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación contendrá un formulario de registro, en el cual el usuario debe indicar un nombre de usuario, una dirección de e-mail válida y una contraseña. Si el nombre de usuario o el e-mail ya existen o es de un formato incorrecto, el registro no se llevará a cabo y se le comunicará al usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fácil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificación del usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación dispondrá de una sección que permitirá la modificación de los datos de su cuenta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja del usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá dar de baja al usuario y su borrado de la base de datos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicio de sesión del usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación contendrá un formulario de inicio de sesión, en el cual un usuario que ya haya sido registrado y confirmado podrá iniciar sesión en la aplicación indroduciendo su nombre de usuario y su contraseña. En caso de que no fueran correctos se le comunicará al usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerrar sesión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación, cuando un usuario tenga la sesión abierta, permitirá el cierre de la sesión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo de confirmación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una vez el usuario haya completado el formulario de registro se le enviará un correo de confirmación al e-mail especificado. Si no se confirma en el tiempo estipulado, el inicio de sesión en la aplicación no será posible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reenvío de correo de confirmación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación permitirá el reenvío del correo de confirmación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuperación de contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En caso de olvido o pérdida de la contraseña, la aplicación permitirá su recuperación vía e-mail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario que no confirme el correo en 24 horas será eliminado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario que no confirme el correo al darse de alta en un plazo de 24 horas, será borrado y deberá darse de alta de nuevo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar el perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario podrá editar todos sus datos personales y su zona horaria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite guardar geolocalización en el perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uno de los datos del perfil será la geolocalización del usuario, dato que será usado por el administrador para visualizar en un mapa la ubicación de todos los usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difícil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar avatar del usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario podrá modificar su imagen de avatar  en la pantalla de edición del perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear sección de la casa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crea una sección(planta alta, baja…) en la casa del usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear habitación en una sección de la casa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crea una habitación dentro de una sección de la casa del usuario. El usuario podrá elegir el nombre y una imagen que la identifique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir módulos a una habitación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario puede añadir los módulos de domótica que estén en la habitación seleccionada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar sección de la casa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario podrá modificar el nombre de la sección de la casa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar habitación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario podrá modificar el nombre de la habitación, su imagen y la sección de la casa a la que pertenece.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar módulos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario podrá modificar el nombre del módulo y cambiar la habitación a la que pertenece.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrar sección</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario podrá borrar una sección de la casa con todo lo que contenga dentro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrar habitación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario podrá borrar una habitación con todos los módulos que pertenezcan a ella.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrar módulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario podrá borrar un módulo que pertenezca a una habitación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir cámaras de videovigilancia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario podrá añadir cámaras de videovigilancia y podrán visualizarse a través de la aplicación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear un log con cada evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada vez que se active o desactive algún módulo se creará un registro en un log indicando el evento y la fecha y hora del mismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Información</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear publicación en el tablón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario podrá crear una nueva publicación en un tablón.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar publicación en el tablón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario podrá modificar una publicación que haya creado él mismo en el tablón.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrar publicación en el tablón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario podrá borrar una publicación que haya creado él mismo en el tablón.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El tablón podrá ser visualizado sin estar logueado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La lista de todas las publicaciones del tablón podrán ser visualizadas por cualquier visitante de la página.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios pueden comentar las publicaciones de otros usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios puden comentar las publicaciones que hayan realizado otros usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios podrán mandar mensajes privados a otros usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios podrán mandar mensajes privados a otros usuarios. lo recibirán en su buzón de entrada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios podrán consultar los mensajes privados enviados a  otros usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios podrán consultar los mensajes privados enviados a  otros usuarios, los cuales estarán en la bandeja de salida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios podrán borrar los mensajes recibidos y enviados a otros usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios podrán borrar tanto los mensajes recibidos por otros usuarios o los mensajes que hayan enviado ellos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al usuario se le mandará un correo electrónico cada vez que reciba un mensaje privado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios que reciban un mensaje privado serán avisados con un correo electrónico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá ver a los usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá consultar en una lista todos los usuarios existentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá modificar a los usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá modificar los datos de los usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá borrar a los usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá borrar a los usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá borrar las publicaciones de los usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá borrar las publicaciones que los usuarios hayan realizado en el tablón.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá mandar mensajes en grupo a todos los usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá mandar mensajes que lleguen a todos los usuarios a la vez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá ver en un mapa la geolocalización de los usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá consultar en un mapa la geolocalización de todos los usuarios a través de marcadores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validación de los formularios</t>
   </si>
   <si>
     <t xml:space="preserve">Mínimo</t>
@@ -61,76 +430,142 @@
     <t xml:space="preserve">Técnico</t>
   </si>
   <si>
-    <t xml:space="preserve">Fácil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdldjflgdfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdlksdljkfsldjfsd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdfsfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lkcvlkjxcjklcxljkwejlksdfvc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Información</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfsfsfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jk34jlk4n,lkjlksdflksdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xcvxcv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdkfjklsdfjldksf
-- sdlkfjlksdjfldksjflksjfdss
-- slkdjflksjflksjflksjkljfksldjfldks
-sldkjflskdjfdlskjflksdjflkdsjflkjslkfjslkjfdlskjflsjklfdjslkjlskjdflks
-klsdjfkljsdlkfjskldf
-sdklfjklsdjfklsdjflksdjfklsdjkl
-lñklllllllllllllllllllllllqweqweqweqew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difícil</t>
+    <t xml:space="preserve">R40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de ventanas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de mecanismos de manejo de eventos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso y manipulación del DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almacenamiento en el lado del cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de JQUERY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de algún plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de AJAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP 7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yii2 2.0.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostgreSQL 9.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despliegue en Heroku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas con Codeception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar con Code Climate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escalabilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de HTML5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño flexible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existencia de transiciones, transformaciones, animaciones y contenido multimedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validación de HTML y CSS, nivel de accesibilidad AA y prueba del seis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar para varias resoluciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprobación en varios navegadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desplegar en un Host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desplegar en un servidor local</t>
   </si>
 </sst>
 </file>
@@ -191,7 +626,7 @@
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -214,9 +649,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -236,7 +671,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -244,7 +679,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -268,24 +707,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="53.4591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="76.6734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="9.85204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -311,138 +750,1402 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="23.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D6" type="list">
+  <dataValidations count="5">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D63" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E1:E6" type="none">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E1" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F63" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G6" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G63" type="list">
       <formula1>"v1,v2,v3"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E63" type="list">
+      <formula1>"Funcional,Técnico,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="212">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">Cambiar avatar del usuario</t>
   </si>
   <si>
-    <t xml:space="preserve">El usuario podrá modificar su imagen de avatar  en la pantalla de edición del perfil</t>
+    <t xml:space="preserve">El usuario podrá modificar su imagen de avatar  en la pantalla de edición del perfil.</t>
   </si>
   <si>
     <t xml:space="preserve">R13</t>
@@ -280,145 +280,235 @@
     <t xml:space="preserve">Cada vez que se active o desactive algún módulo se creará un registro en un log indicando el evento y la fecha y hora del mismo.</t>
   </si>
   <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizar un archivo GPX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación tendrá un apartado que permitirá la visualización de un recorrido o ruta en el Google Maps guardado en un archivo tipo GPX.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear publicación en el tablón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario podrá crear una nueva publicación en un tablón.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar publicación en el tablón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario podrá modificar una publicación que haya creado él mismo en el tablón.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrar publicación en el tablón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario podrá borrar una publicación que haya creado él mismo en el tablón.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El tablón podrá ser visualizado sin estar logueado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La lista de todas las publicaciones del tablón podrán ser visualizadas por cualquier visitante de la página.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios pueden comentar las publicaciones de otros usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios puden comentar las publicaciones que hayan realizado otros usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios podrán mandar mensajes privados a otros usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios podrán mandar mensajes privados a otros usuarios. lo recibirán en su buzón de entrada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios podrán consultar los mensajes privados enviados a  otros usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios podrán consultar los mensajes privados enviados a  otros usuarios, los cuales estarán en la bandeja de salida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios podrán borrar los mensajes recibidos y enviados a otros usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios podrán borrar tanto los mensajes recibidos por otros usuarios o los mensajes que hayan enviado ellos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al usuario se le mandará un correo electrónico cada vez que reciba un mensaje privado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios que reciban un mensaje privado serán avisados con un correo electrónico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá ver a los usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá consultar en una lista todos los usuarios existentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá modificar a los usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá modificar los datos de los usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá borrar a los usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá borrar a los usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá borrar las publicaciones de los usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá borrar las publicaciones que los usuarios hayan realizado en el tablón.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá mandar mensajes en grupo a todos los usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá mandar mensajes que lleguen a todos los usuarios a la vez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá ver en un mapa la geolocalización de los usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador podrá consultar en un mapa la geolocalización de todos los usuarios a través de marcadores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De los usuarios se almacenará su nombre de usuario, contraseña, email, nombre y apellidos, dirección, teléfono, sexo, zona horaria, geolocalización y su avatar.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Información</t>
   </si>
   <si>
-    <t xml:space="preserve">R24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear publicación en el tablón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario podrá crear una nueva publicación en un tablón.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modificar publicación en el tablón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario podrá modificar una publicación que haya creado él mismo en el tablón.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borrar publicación en el tablón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario podrá borrar una publicación que haya creado él mismo en el tablón.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El tablón podrá ser visualizado sin estar logueado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La lista de todas las publicaciones del tablón podrán ser visualizadas por cualquier visitante de la página.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios pueden comentar las publicaciones de otros usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios puden comentar las publicaciones que hayan realizado otros usuarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios podrán mandar mensajes privados a otros usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios podrán mandar mensajes privados a otros usuarios. lo recibirán en su buzón de entrada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios podrán consultar los mensajes privados enviados a  otros usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios podrán consultar los mensajes privados enviados a  otros usuarios, los cuales estarán en la bandeja de salida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios podrán borrar los mensajes recibidos y enviados a otros usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios podrán borrar tanto los mensajes recibidos por otros usuarios o los mensajes que hayan enviado ellos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al usuario se le mandará un correo electrónico cada vez que reciba un mensaje privado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios que reciban un mensaje privado serán avisados con un correo electrónico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá ver a los usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá consultar en una lista todos los usuarios existentes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá modificar a los usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá modificar los datos de los usuarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá borrar a los usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá borrar a los usuarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá borrar las publicaciones de los usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá borrar las publicaciones que los usuarios hayan realizado en el tablón.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá mandar mensajes en grupo a todos los usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá mandar mensajes que lleguen a todos los usuarios a la vez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá ver en un mapa la geolocalización de los usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador podrá consultar en un mapa la geolocalización de todos los usuarios a través de marcadores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R39</t>
+    <t xml:space="preserve">R41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De las secciones de la casa se almacenará su nombre y el usuario al que pertenece.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habitaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De las habitaciones se almacenará su nombre, la sección a la que pertenece y su icono.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cámaras de videovigilancia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De las cámaras se almacenará su nombre, su dirección ip y el usuario al que pertenece.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Módulos de domótica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De los módulos de domótica se almacenará su nombre, tipo, habitación a la que pertenece y su estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De los logs se almacenará el módulo de domótica, el estado y la fecha y hora del mismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicaciones del tablón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De las publicaciones se almacenará el usuario, el mensaje y la fecha y hora de publicación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comentarios a publicaciones del tablón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De los comentarios se almacenará el usuario, la publicación a la que se refiere, el mensaje y la fecha y hora del comentario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mensajes privados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del mensaje privado se almacenará el usuario origen, el usuario destino, el mensaje y la fecha y hora de envío.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R49</t>
   </si>
   <si>
     <t xml:space="preserve">Validación de los formularios</t>
@@ -430,139 +520,139 @@
     <t xml:space="preserve">Técnico</t>
   </si>
   <si>
-    <t xml:space="preserve">R40</t>
+    <t xml:space="preserve">R50</t>
   </si>
   <si>
     <t xml:space="preserve">Gestión de ventanas</t>
   </si>
   <si>
-    <t xml:space="preserve">R41</t>
+    <t xml:space="preserve">R51</t>
   </si>
   <si>
     <t xml:space="preserve">Uso de mecanismos de manejo de eventos</t>
   </si>
   <si>
-    <t xml:space="preserve">R42</t>
+    <t xml:space="preserve">R52</t>
   </si>
   <si>
     <t xml:space="preserve">Uso y manipulación del DOM</t>
   </si>
   <si>
-    <t xml:space="preserve">R43</t>
+    <t xml:space="preserve">R53</t>
   </si>
   <si>
     <t xml:space="preserve">Almacenamiento en el lado del cliente</t>
   </si>
   <si>
-    <t xml:space="preserve">R44</t>
+    <t xml:space="preserve">R54</t>
   </si>
   <si>
     <t xml:space="preserve">Uso de JQUERY</t>
   </si>
   <si>
-    <t xml:space="preserve">R45</t>
+    <t xml:space="preserve">R55</t>
   </si>
   <si>
     <t xml:space="preserve">Uso de algún plugin</t>
   </si>
   <si>
-    <t xml:space="preserve">R46</t>
+    <t xml:space="preserve">R56</t>
   </si>
   <si>
     <t xml:space="preserve">Uso de AJAX</t>
   </si>
   <si>
-    <t xml:space="preserve">R47</t>
+    <t xml:space="preserve">R57</t>
   </si>
   <si>
     <t xml:space="preserve">PHP 7.1</t>
   </si>
   <si>
-    <t xml:space="preserve">R48</t>
+    <t xml:space="preserve">R58</t>
   </si>
   <si>
     <t xml:space="preserve">Yii2 2.0.10</t>
   </si>
   <si>
-    <t xml:space="preserve">R49</t>
+    <t xml:space="preserve">R59</t>
   </si>
   <si>
     <t xml:space="preserve">PostgreSQL 9.6</t>
   </si>
   <si>
-    <t xml:space="preserve">R50</t>
+    <t xml:space="preserve">R60</t>
   </si>
   <si>
     <t xml:space="preserve">Despliegue en Heroku</t>
   </si>
   <si>
-    <t xml:space="preserve">R51</t>
+    <t xml:space="preserve">R61</t>
   </si>
   <si>
     <t xml:space="preserve">Pruebas con Codeception</t>
   </si>
   <si>
-    <t xml:space="preserve">R52</t>
+    <t xml:space="preserve">R62</t>
   </si>
   <si>
     <t xml:space="preserve">Validar con Code Climate</t>
   </si>
   <si>
-    <t xml:space="preserve">R53</t>
+    <t xml:space="preserve">R63</t>
   </si>
   <si>
     <t xml:space="preserve">Escalabilidad</t>
   </si>
   <si>
-    <t xml:space="preserve">R54</t>
+    <t xml:space="preserve">R64</t>
   </si>
   <si>
     <t xml:space="preserve">Uso de HTML5</t>
   </si>
   <si>
-    <t xml:space="preserve">R55</t>
+    <t xml:space="preserve">R65</t>
   </si>
   <si>
     <t xml:space="preserve">Uso de CSS</t>
   </si>
   <si>
-    <t xml:space="preserve">R56</t>
+    <t xml:space="preserve">R66</t>
   </si>
   <si>
     <t xml:space="preserve">Diseño flexible</t>
   </si>
   <si>
-    <t xml:space="preserve">R57</t>
+    <t xml:space="preserve">R67</t>
   </si>
   <si>
     <t xml:space="preserve">Existencia de transiciones, transformaciones, animaciones y contenido multimedia</t>
   </si>
   <si>
-    <t xml:space="preserve">R58</t>
+    <t xml:space="preserve">R68</t>
   </si>
   <si>
     <t xml:space="preserve">Validación de HTML y CSS, nivel de accesibilidad AA y prueba del seis</t>
   </si>
   <si>
-    <t xml:space="preserve">R59</t>
+    <t xml:space="preserve">R69</t>
   </si>
   <si>
     <t xml:space="preserve">Implementar para varias resoluciones</t>
   </si>
   <si>
-    <t xml:space="preserve">R60</t>
+    <t xml:space="preserve">R70</t>
   </si>
   <si>
     <t xml:space="preserve">Comprobación en varios navegadores</t>
   </si>
   <si>
-    <t xml:space="preserve">R61</t>
+    <t xml:space="preserve">R71</t>
   </si>
   <si>
     <t xml:space="preserve">Desplegar en un Host</t>
   </si>
   <si>
-    <t xml:space="preserve">R62</t>
+    <t xml:space="preserve">R72</t>
   </si>
   <si>
     <t xml:space="preserve">Desplegar en un servidor local</t>
@@ -707,21 +797,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="76.6734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="72.3571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,7 +910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -1139,7 +1230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
         <v>68</v>
       </c>
@@ -1268,7 +1359,7 @@
         <v>33</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>41</v>
@@ -1277,39 +1368,39 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="D26" s="9" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +1408,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>55</v>
@@ -1325,13 +1416,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>11</v>
@@ -1346,15 +1437,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>11</v>
@@ -1371,60 +1462,60 @@
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="D29" s="9" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="D30" s="9" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="D31" s="9" t="s">
         <v>11</v>
       </c>
@@ -1432,24 +1523,24 @@
         <v>12</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="D32" s="9" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>12</v>
@@ -1461,15 +1552,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>33</v>
@@ -1481,64 +1572,64 @@
         <v>41</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>11</v>
@@ -1555,22 +1646,22 @@
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="D37" s="9" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>37</v>
@@ -1578,22 +1669,22 @@
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="D38" s="9" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>37</v>
@@ -1601,13 +1692,13 @@
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>11</v>
@@ -1622,46 +1713,50 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="8"/>
       <c r="D40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="D41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>135</v>
-      </c>
       <c r="F41" s="9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1671,138 +1766,152 @@
       <c r="B42" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="D42" s="9" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="8"/>
+        <v>142</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="D43" s="9" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="D44" s="9" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="8"/>
+        <v>148</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="D45" s="9" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="8"/>
+        <v>151</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="D46" s="9" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="8"/>
+        <v>154</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>155</v>
+      </c>
       <c r="D47" s="9" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="8"/>
+        <v>157</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="D48" s="9" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>13</v>
@@ -1811,19 +1920,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="D49" s="9" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>13</v>
@@ -1834,38 +1945,38 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="9" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="9" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>41</v>
@@ -1876,20 +1987,20 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="9" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>37</v>
@@ -1897,20 +2008,20 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="9" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>37</v>
@@ -1918,17 +2029,17 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>41</v>
@@ -1939,146 +2050,146 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="9" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="9" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="9" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="9" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="9" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="9" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="9" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>37</v>
@@ -2086,20 +2197,20 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="9" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>37</v>
@@ -2107,28 +2218,238 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="9" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F63" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G64" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="9" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D63" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D73" type="list">
       <formula1>"Mínimo,Importante,Opcional"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2136,15 +2457,15 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F63" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F73" type="list">
       <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G63" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G73" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E63" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E73" type="list">
       <formula1>"Funcional,Técnico,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
